--- a/dictionaries/core/2_2/2_2_yearly_rep.xlsx
+++ b/dictionaries/core/2_2/2_2_yearly_rep.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3ACA71-F682-0543-ADE2-4B3E90DC5655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="14556"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="330">
   <si>
     <t>name</t>
   </si>
@@ -1005,13 +999,19 @@
   </si>
   <si>
     <t>Maternal bulimia nervosa active after the index pregnancy</t>
+  </si>
+  <si>
+    <t>mdist_</t>
+  </si>
+  <si>
+    <t>distance to meteorological station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1110,11 +1110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1507,7 +1508,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1551,7 +1552,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1572,23 +1573,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="169.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="169.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1658,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1673,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1686,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1730,7 +1731,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1746,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1776,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1790,7 +1791,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1806,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1821,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1835,7 +1836,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1851,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1865,7 +1866,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +1896,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1941,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1955,7 +1956,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1970,7 +1971,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2000,7 +2001,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2016,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>312</v>
       </c>
@@ -2045,7 +2046,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>313</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>314</v>
       </c>
@@ -2075,7 +2076,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>315</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2105,7 +2106,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2135,7 +2136,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2165,7 +2166,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>167</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>170</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>172</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>174</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>176</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>178</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>181</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>182</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>183</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>184</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>185</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>186</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>187</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>188</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>189</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>190</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>191</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>192</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>193</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>194</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>195</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>196</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>197</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>199</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>201</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>202</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>204</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>205</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>207</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>208</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>209</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>210</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>212</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>213</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>214</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>215</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>216</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>218</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>219</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>220</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>221</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>222</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>223</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>224</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>225</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>226</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>227</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>228</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>229</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>231</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>232</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>234</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>162</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>235</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>237</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>238</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>239</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>241</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>164</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>163</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>242</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>165</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>166</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>243</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>245</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>247</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>248</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>250</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>251</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>252</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>255</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>259</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>261</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>263</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>265</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>268</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>270</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>272</v>
       </c>
@@ -3299,45 +3300,59 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:4" ht="15" customHeight="1">
+      <c r="A117" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1">
+      <c r="A118" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
+    <row r="119" spans="1:4" ht="15" customHeight="1">
+      <c r="A119" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="14" t="s">
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+    <row r="120" spans="1:4" ht="15" customHeight="1">
+      <c r="A120" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="14" t="s">
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3351,23 +3366,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A99" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A132" sqref="A132:D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="37.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="37.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3423,7 +3438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3521,7 +3536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3549,7 +3564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3577,7 +3592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3591,7 +3606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3605,7 +3620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -3703,7 +3718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -3717,7 +3732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3787,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -3801,7 +3816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3843,7 +3858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +3872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3871,7 +3886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -3913,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
@@ -3941,7 +3956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +4026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -4025,7 +4040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4039,7 +4054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4067,7 +4082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +4110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>22</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>22</v>
       </c>
@@ -4123,7 +4138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>22</v>
       </c>
@@ -4137,7 +4152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>22</v>
       </c>
@@ -4151,7 +4166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -4165,7 +4180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -4179,7 +4194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -4207,7 +4222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -4263,7 +4278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -4277,7 +4292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -4291,7 +4306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>24</v>
       </c>
@@ -4305,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
@@ -4319,7 +4334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -4333,7 +4348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>24</v>
       </c>
@@ -4347,7 +4362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>25</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -4389,7 +4404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>26</v>
       </c>
@@ -4403,7 +4418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>26</v>
       </c>
@@ -4417,7 +4432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
@@ -4431,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>26</v>
       </c>
@@ -4445,7 +4460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>27</v>
       </c>
@@ -4459,7 +4474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>27</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>27</v>
       </c>
@@ -4487,7 +4502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>28</v>
       </c>
@@ -4501,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>28</v>
       </c>
@@ -4515,7 +4530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>28</v>
       </c>
@@ -4529,7 +4544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>28</v>
       </c>
@@ -4543,7 +4558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
@@ -4557,7 +4572,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -4571,7 +4586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>30</v>
       </c>
@@ -4585,7 +4600,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>30</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4628,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>31</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>32</v>
       </c>
@@ -4641,7 +4656,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>32</v>
       </c>
@@ -4655,7 +4670,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>33</v>
       </c>
@@ -4669,7 +4684,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>33</v>
       </c>
@@ -4683,7 +4698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>34</v>
       </c>
@@ -4697,7 +4712,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -4711,7 +4726,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>312</v>
       </c>
@@ -4725,7 +4740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>312</v>
       </c>
@@ -4739,7 +4754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>314</v>
       </c>
@@ -4753,7 +4768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>314</v>
       </c>
@@ -4767,7 +4782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>35</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>35</v>
       </c>
@@ -4795,7 +4810,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -4809,7 +4824,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -4837,7 +4852,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>36</v>
       </c>
@@ -4851,7 +4866,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>37</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -4879,7 +4894,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>161</v>
       </c>
@@ -4893,7 +4908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>161</v>
       </c>
@@ -4907,7 +4922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>162</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>162</v>
       </c>
@@ -4935,7 +4950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>163</v>
       </c>
@@ -4949,7 +4964,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>163</v>
       </c>
@@ -4963,7 +4978,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>163</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>163</v>
       </c>
@@ -4991,7 +5006,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>163</v>
       </c>
@@ -5005,7 +5020,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>164</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>164</v>
       </c>
@@ -5033,7 +5048,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>164</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>164</v>
       </c>
@@ -5061,7 +5076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>164</v>
       </c>
@@ -5075,7 +5090,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>164</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>165</v>
       </c>
@@ -5103,7 +5118,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>165</v>
       </c>
@@ -5117,7 +5132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>165</v>
       </c>
@@ -5131,7 +5146,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>166</v>
       </c>
@@ -5145,7 +5160,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>166</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>166</v>
       </c>
@@ -5173,7 +5188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>166</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>166</v>
       </c>
@@ -5201,7 +5216,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="11" t="s">
         <v>322</v>
       </c>
@@ -5215,7 +5230,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="11" t="s">
         <v>322</v>
       </c>
@@ -5229,7 +5244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="11" t="s">
         <v>323</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="11" t="s">
         <v>323</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="11" t="s">
         <v>324</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="11" t="s">
         <v>324</v>
       </c>
